--- a/output/sites/clustering with PCs/Mann_Whitney_test_clust_PCs_compo_sites.xlsx
+++ b/output/sites/clustering with PCs/Mann_Whitney_test_clust_PCs_compo_sites.xlsx
@@ -428,22 +428,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.000102838338132456</v>
       </c>
       <c r="E2" t="n">
-        <v>0.699300699300699</v>
+        <v>0.474701768819416</v>
       </c>
       <c r="F2" t="n">
-        <v>0.018981018981019</v>
+        <v>0.043089263677499</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.000102838338132456</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00699300699300699</v>
+        <v>0.00071986836692719</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.000102838338132456</v>
       </c>
     </row>
     <row r="3">
@@ -457,22 +457,22 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.0728438228438228</v>
       </c>
       <c r="E3" t="n">
-        <v>0.437562437562438</v>
+        <v>0.164918414918415</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00699300699300699</v>
+        <v>0.000582750582750583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.0378787878787879</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00699300699300699</v>
+        <v>0.000582750582750583</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001998001998002</v>
+        <v>0.000582750582750583</v>
       </c>
     </row>
     <row r="4">
@@ -486,22 +486,22 @@
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.412698412698413</v>
+        <v>0.183333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0634920634920635</v>
+        <v>0.183333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0317460317460317</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0158730158730159</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.73015873015873</v>
+        <v>0.516666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -515,22 +515,22 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000411353352529823</v>
+        <v>0.000102838338132456</v>
       </c>
       <c r="E5" t="n">
-        <v>0.545701357466063</v>
+        <v>0.229535170711641</v>
       </c>
       <c r="F5" t="n">
-        <v>0.604812834224599</v>
+        <v>0.229535170711641</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00777457836281366</v>
+        <v>0.00678733031674208</v>
       </c>
       <c r="H5" t="n">
-        <v>0.258083093377211</v>
+        <v>0.0702385849444673</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000287947346770876</v>
+        <v>0.00195392842451666</v>
       </c>
     </row>
     <row r="6">
@@ -544,22 +544,22 @@
         <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0027972027972028</v>
+        <v>0.00699300699300699</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0195804195804196</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.413986013986014</v>
+        <v>0.286713286713287</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0027972027972028</v>
+        <v>0.00699300699300699</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0027972027972028</v>
+        <v>0.013986013986014</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0027972027972028</v>
+        <v>0.00699300699300699</v>
       </c>
     </row>
     <row r="7">
@@ -573,22 +573,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0027972027972028</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0195804195804196</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.148251748251748</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0027972027972028</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0111888111888112</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0111888111888112</v>
+        <v>0.0166666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -602,22 +602,22 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0000216501764489381</v>
+        <v>0.00146520146520147</v>
       </c>
       <c r="E8" t="n">
-        <v>0.400181861482171</v>
+        <v>0.0395604395604396</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00145056182207885</v>
+        <v>0.104029304029304</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000151551235142566</v>
+        <v>0.00293040293040293</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0076208621100262</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000866007057957522</v>
+        <v>0.00146520146520147</v>
       </c>
     </row>
     <row r="9">
@@ -631,22 +631,22 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.117882117882118</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="E9" t="n">
-        <v>0.874875124875125</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0224775224775225</v>
+        <v>0.038003663003663</v>
       </c>
       <c r="G9" t="n">
-        <v>0.957792207792208</v>
+        <v>0.31959706959707</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00749250749250749</v>
+        <v>0.0086996336996337</v>
       </c>
       <c r="I9" t="n">
-        <v>0.180569430569431</v>
+        <v>0.913003663003663</v>
       </c>
     </row>
     <row r="10">
@@ -660,22 +660,22 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001998001998002</v>
+        <v>0.0000119075970469159</v>
       </c>
       <c r="E10" t="n">
-        <v>0.53946053946054</v>
+        <v>0.111943319838057</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001998001998002</v>
+        <v>0.0000238151940938319</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001998001998002</v>
+        <v>0.0000119075970469159</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001998001998002</v>
+        <v>0.0000119075970469159</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001998001998002</v>
+        <v>0.0000119075970469159</v>
       </c>
     </row>
     <row r="11">
@@ -689,22 +689,22 @@
         <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0003996003996004</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="E11" t="n">
-        <v>0.223776223776224</v>
+        <v>0.73015873015873</v>
       </c>
       <c r="F11" t="n">
-        <v>0.181018981018981</v>
+        <v>0.412698412698413</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003996003996004</v>
+        <v>0.0634920634920635</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003996003996004</v>
+        <v>0.0634920634920635</v>
       </c>
     </row>
     <row r="12">
@@ -718,22 +718,22 @@
         <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>0.106293706293706</v>
+        <v>0.0027972027972028</v>
       </c>
       <c r="E12" t="n">
-        <v>0.26013986013986</v>
+        <v>0.0755244755244755</v>
       </c>
       <c r="F12" t="n">
-        <v>0.413986013986014</v>
+        <v>0.0027972027972028</v>
       </c>
       <c r="G12" t="n">
-        <v>0.148251748251748</v>
+        <v>0.0027972027972028</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0503496503496503</v>
+        <v>0.0027972027972028</v>
       </c>
       <c r="I12" t="n">
-        <v>0.825174825174825</v>
+        <v>0.0027972027972028</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00952380952380952</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.0829170829170829</v>
       </c>
       <c r="F13" t="n">
-        <v>0.019047619047619</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00952380952380952</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0380952380952381</v>
+        <v>0.0599400599400599</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00952380952380952</v>
+        <v>0.000999000999000999</v>
       </c>
     </row>
   </sheetData>
